--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,26 +1,378 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA_GITHUB\NCAE_2022_S1\Vedaonline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B032AF-0579-42AE-AB3D-233351CF603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Region-Time Slices" sheetId="1" r:id="rId1"/>
+    <sheet name="TimePeriods" sheetId="2" r:id="rId2"/>
+    <sheet name="Interpol_Extrapol_Defaults" sheetId="3" r:id="rId3"/>
+    <sheet name="Constants" sheetId="4" r:id="rId4"/>
+    <sheet name="Defaults" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{3A269184-FC4C-469B-8DB2-759574EA2844}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Automatically created for a New Project</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
+  <si>
+    <t>~BookRegions_Map</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>BookName</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>DayNite</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>DN1</t>
+  </si>
+  <si>
+    <t>DN2</t>
+  </si>
+  <si>
+    <t>~StartYear</t>
+  </si>
+  <si>
+    <t>~TimePeriods</t>
+  </si>
+  <si>
+    <t>~ActivePDef</t>
+  </si>
+  <si>
+    <t>Pdef-1</t>
+  </si>
+  <si>
+    <t>Start Year</t>
+  </si>
+  <si>
+    <t>Time Periods Definition</t>
+  </si>
+  <si>
+    <t>Active time period definition</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Year2</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>Pset_Set</t>
+  </si>
+  <si>
+    <t>ACTCOST</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
+    <t>IMP*Z</t>
+  </si>
+  <si>
+    <t>IMPDEMZ</t>
+  </si>
+  <si>
+    <t>Global inter / extra polation options</t>
+  </si>
+  <si>
+    <t>~TFM_MIG</t>
+  </si>
+  <si>
+    <t>* Prices for Dummy Import</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>G_DYEAR</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>YRFR</t>
+  </si>
+  <si>
+    <t>Define model constants</t>
+  </si>
+  <si>
+    <t>S1DN1</t>
+  </si>
+  <si>
+    <t>S1DN2</t>
+  </si>
+  <si>
+    <t>S2DN1</t>
+  </si>
+  <si>
+    <t>S2DN2</t>
+  </si>
+  <si>
+    <t>~Currencies</t>
+  </si>
+  <si>
+    <t>~DefUnits</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>TRA</t>
+  </si>
+  <si>
+    <t>MPLN</t>
+  </si>
+  <si>
+    <t>Process_ActUnit</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>kPk</t>
+  </si>
+  <si>
+    <t>MEuro</t>
+  </si>
+  <si>
+    <t>Process_CapUnit</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <t>000_Units</t>
+  </si>
+  <si>
+    <t>Commodity_Unit</t>
+  </si>
+  <si>
+    <t>from_unit</t>
+  </si>
+  <si>
+    <t>to_unit</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>QBtu</t>
+  </si>
+  <si>
+    <t>TWh</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>B Euro</t>
+  </si>
+  <si>
+    <t>M Euro</t>
+  </si>
+  <si>
+    <t>TBtu</t>
+  </si>
+  <si>
+    <t>ktoe</t>
+  </si>
+  <si>
+    <t>mtoe</t>
+  </si>
+  <si>
+    <t>Gwh</t>
+  </si>
+  <si>
+    <t>Gt</t>
+  </si>
+  <si>
+    <t>bEur</t>
+  </si>
+  <si>
+    <t>mEur</t>
+  </si>
+  <si>
+    <t>Eur per bbl</t>
+  </si>
+  <si>
+    <t>Eur per GJ</t>
+  </si>
+  <si>
+    <t>Eur per ton</t>
+  </si>
+  <si>
+    <t>mEur per kt</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>bcm</t>
+  </si>
+  <si>
+    <t>mbpd</t>
+  </si>
+  <si>
+    <t>Cents per Kwh</t>
+  </si>
+  <si>
+    <t>Twh</t>
+  </si>
+  <si>
+    <t>Meuro</t>
+  </si>
+  <si>
+    <t>Currencies</t>
+  </si>
+  <si>
+    <t>Default Units</t>
+  </si>
+  <si>
+    <t>Conversion Factors (available in results only)</t>
+  </si>
+  <si>
+    <t>~UnitConversion</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +380,140 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="53"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,15 +521,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{ADAE154C-D068-468A-BF60-6E55F9157C4D}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +902,830 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D199F0D8-A377-4BF6-88EF-09BA01AF7383}">
+  <dimension ref="B2:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD53DEF-76E2-4A2A-A168-7C27CD04CF0F}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>2222</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="22">
+        <v>8888</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3586CE5-275E-406B-8C72-15341786C287}">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25">
+        <v>2020</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26">
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="H11" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784A6939-CE8C-49D6-9BA2-48815BFEED0F}">
+  <dimension ref="B2:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1055.55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="33">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1.05555</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="33">
+        <v>4.1868000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="13">
+        <v>41.868000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="33">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0.15384600000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="33">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="33">
+        <v>37.681199999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="33">
+        <v>2.7777769999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="13">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="35">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28618"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\TIMES_IPOY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy.sharepoint.com/sites/TIMES_Veda/Shared Documents/General/Demo model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47693482-1989-4140-B3A9-C67B50B97BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{47693482-1989-4140-B3A9-C67B50B97BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78401B1D-A545-48F5-90EF-748B4337B188}"/>
   <bookViews>
-    <workbookView xWindow="8556" yWindow="2352" windowWidth="24252" windowHeight="15156" tabRatio="853" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3312" yWindow="2916" windowWidth="34320" windowHeight="15288" tabRatio="853" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -28,6 +28,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,6 +39,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,6 +49,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
   <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Timeslices</t>
+  </si>
+  <si>
     <t>~BookRegions_Map</t>
   </si>
   <si>
@@ -69,15 +79,60 @@
     <t>Model</t>
   </si>
   <si>
+    <t>REG_A</t>
+  </si>
+  <si>
+    <t>1S</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>REG_B</t>
+  </si>
+  <si>
+    <t>2S</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>REG_C</t>
+  </si>
+  <si>
+    <t>DayNIte</t>
+  </si>
+  <si>
+    <t>Timeslice Name</t>
+  </si>
+  <si>
     <t>* Globalne ustawienia okresów i lat milowych</t>
   </si>
   <si>
+    <t>Start Year</t>
+  </si>
+  <si>
+    <t>Default Year if first perion is longer than 1 year</t>
+  </si>
+  <si>
     <t>~StartYear</t>
   </si>
   <si>
     <t>Deact~DefaultYear</t>
   </si>
   <si>
+    <t>Period definition</t>
+  </si>
+  <si>
+    <t>Active period definition</t>
+  </si>
+  <si>
     <t>~TimePeriods</t>
   </si>
   <si>
@@ -87,6 +142,12 @@
     <t>Pdef-1</t>
   </si>
   <si>
+    <t>Global inter / extra polation options</t>
+  </si>
+  <si>
+    <t>~TFM_MIG</t>
+  </si>
+  <si>
     <t>LimType</t>
   </si>
   <si>
@@ -114,6 +175,9 @@
     <t>Share-I</t>
   </si>
   <si>
+    <t>Dummy import prices</t>
+  </si>
+  <si>
     <t>~TFM_UPD</t>
   </si>
   <si>
@@ -156,9 +220,33 @@
     <t>Discount</t>
   </si>
   <si>
+    <t>1S1W1D</t>
+  </si>
+  <si>
     <t>YRFR</t>
   </si>
   <si>
+    <t>1S1W2D</t>
+  </si>
+  <si>
+    <t>1S2W1D</t>
+  </si>
+  <si>
+    <t>1S2W2D</t>
+  </si>
+  <si>
+    <t>2S1W1D</t>
+  </si>
+  <si>
+    <t>2S1W2D</t>
+  </si>
+  <si>
+    <t>2S2W1D</t>
+  </si>
+  <si>
+    <t>2S2W2D</t>
+  </si>
+  <si>
     <t>* Waluty</t>
   </si>
   <si>
@@ -225,6 +313,9 @@
     <t>* Konwersja jednostek w wynikach</t>
   </si>
   <si>
+    <t>~UnitConversion</t>
+  </si>
+  <si>
     <t>from_unit</t>
   </si>
   <si>
@@ -301,93 +392,6 @@
   </si>
   <si>
     <t>Meuro</t>
-  </si>
-  <si>
-    <t>~UnitConversion</t>
-  </si>
-  <si>
-    <t>1S</t>
-  </si>
-  <si>
-    <t>2S</t>
-  </si>
-  <si>
-    <t>1W</t>
-  </si>
-  <si>
-    <t>2W</t>
-  </si>
-  <si>
-    <t>1D</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>Regions</t>
-  </si>
-  <si>
-    <t>Timeslices</t>
-  </si>
-  <si>
-    <t>DayNIte</t>
-  </si>
-  <si>
-    <t>Timeslice Name</t>
-  </si>
-  <si>
-    <t>Start Year</t>
-  </si>
-  <si>
-    <t>Default Year if first perion is longer than 1 year</t>
-  </si>
-  <si>
-    <t>Period definition</t>
-  </si>
-  <si>
-    <t>Active period definition</t>
-  </si>
-  <si>
-    <t>~TFM_MIG</t>
-  </si>
-  <si>
-    <t>Global inter / extra polation options</t>
-  </si>
-  <si>
-    <t>Dummy import prices</t>
-  </si>
-  <si>
-    <t>1S1W1D</t>
-  </si>
-  <si>
-    <t>1S1W2D</t>
-  </si>
-  <si>
-    <t>1S2W1D</t>
-  </si>
-  <si>
-    <t>1S2W2D</t>
-  </si>
-  <si>
-    <t>2S1W1D</t>
-  </si>
-  <si>
-    <t>2S1W2D</t>
-  </si>
-  <si>
-    <t>2S2W1D</t>
-  </si>
-  <si>
-    <t>2S2W2D</t>
-  </si>
-  <si>
-    <t>REG_A</t>
-  </si>
-  <si>
-    <t>REG_B</t>
-  </si>
-  <si>
-    <t>REG_C</t>
   </si>
 </sst>
 </file>
@@ -395,27 +399,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="19">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
-    <numFmt numFmtId="175" formatCode="#,##0."/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#."/>
-    <numFmt numFmtId="177" formatCode="m/d/yy\ h:mm"/>
-    <numFmt numFmtId="178" formatCode="#.00"/>
-    <numFmt numFmtId="179" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="181" formatCode="yyyy"/>
-    <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="171" formatCode="#,##0."/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="173" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="174" formatCode="#.00"/>
+    <numFmt numFmtId="175" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="177" formatCode="yyyy"/>
+    <numFmt numFmtId="178" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="87">
+  <fonts count="89">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -958,6 +962,21 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1696,7 +1715,7 @@
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="5" fillId="20" borderId="1">
+    <xf numFmtId="170" fontId="5" fillId="20" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1765,15 +1784,15 @@
     <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="55" fillId="0" borderId="0">
+    <xf numFmtId="171" fontId="55" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="55" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="55" fillId="0" borderId="0">
+    <xf numFmtId="171" fontId="55" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="55" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -1797,13 +1816,13 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1816,13 +1835,13 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="55" fillId="0" borderId="0">
+    <xf numFmtId="174" fontId="55" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
@@ -1982,8 +2001,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2051,7 +2070,7 @@
     <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="37" fontId="62" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -2314,13 +2333,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -2332,7 +2351,7 @@
     <xf numFmtId="17" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -2448,11 +2467,11 @@
     <xf numFmtId="0" fontId="29" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2470,7 +2489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2509,12 +2528,18 @@
     <xf numFmtId="0" fontId="28" fillId="44" borderId="20" xfId="456" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="45" borderId="0" xfId="456" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="85" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="85" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="86" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="85" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="85" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="86" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="85" fillId="44" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="45" borderId="0" xfId="456" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="723">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2971,6 +2996,7 @@
     <cellStyle name="Neutralne 8" xfId="452" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
     <cellStyle name="Neutralne 9" xfId="453" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
     <cellStyle name="no dec" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
     <cellStyle name="Normal 10" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
     <cellStyle name="Normal 14" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
@@ -2992,7 +3018,6 @@
     <cellStyle name="Normal GHG-Shade" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
     <cellStyle name="Normale_B2020" xfId="475" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="476" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
     <cellStyle name="Normalny 10 2" xfId="477" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
     <cellStyle name="Normalny 11" xfId="478" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
@@ -3386,7 +3411,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3424,7 +3449,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3496,7 +3521,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3670,245 +3695,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="12.75" customHeight="1">
+    <row r="1" spans="2:16" ht="12.75" customHeight="1">
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="2:8" ht="17.399999999999999">
+    <row r="2" spans="2:16" ht="17.45">
       <c r="B2" s="5" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:16">
       <c r="B3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="2:8" ht="18.75" customHeight="1">
+    <row r="4" spans="2:16" ht="18.75" customHeight="1">
       <c r="B4" s="34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="34"/>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:8" ht="13.8" thickBot="1">
+    <row r="5" spans="2:16" ht="13.9" thickBot="1">
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="18.75" customHeight="1"/>
+    <row r="10" spans="2:16" ht="15.75" customHeight="1">
+      <c r="E10" s="28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="32" t="s">
+      <c r="F10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B7" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B8" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1"/>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1">
-      <c r="E10" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>5</v>
-      </c>
       <c r="G10" s="28" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" customHeight="1">
       <c r="E11" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H11" t="str">
         <f>E11&amp;F11&amp;G11</f>
         <v>1S1W1D</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1">
+      <c r="P11" s="38"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" customHeight="1">
       <c r="E12" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" ref="H12:H18" si="0">E12&amp;F12&amp;G12</f>
         <v>1S1W2D</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="P12" s="38"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.45">
       <c r="E13" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>1S2W1D</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="2:16" ht="14.45">
       <c r="E14" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>1S2W2D</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="2:16" ht="14.45">
       <c r="E15" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>2S1W1D</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="2:16" ht="14.45">
       <c r="E16" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>2S1W2D</v>
       </c>
-    </row>
-    <row r="17" spans="5:8">
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="5:16" ht="14.45">
       <c r="E17" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
         <v>2S2W1D</v>
       </c>
-    </row>
-    <row r="18" spans="5:8">
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="5:16" ht="14.45">
       <c r="E18" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
         <v>2S2W2D</v>
       </c>
+      <c r="P18" s="38"/>
+    </row>
+    <row r="19" spans="5:16" ht="14.45">
+      <c r="P19" s="38"/>
+    </row>
+    <row r="20" spans="5:16" ht="14.45">
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="5:16" ht="14.45">
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="5:16" ht="14.45">
+      <c r="P22" s="38"/>
+    </row>
+    <row r="23" spans="5:16" ht="14.45">
+      <c r="P23" s="38"/>
+    </row>
+    <row r="24" spans="5:16" ht="14.45">
+      <c r="P24" s="38"/>
+    </row>
+    <row r="25" spans="5:16" ht="14.45">
+      <c r="P25" s="38"/>
+    </row>
+    <row r="26" spans="5:16" ht="14.45">
+      <c r="P26" s="38"/>
+    </row>
+    <row r="27" spans="5:16" ht="14.45">
+      <c r="P27" s="38"/>
+    </row>
+    <row r="28" spans="5:16" ht="14.45">
+      <c r="P28" s="38"/>
+    </row>
+    <row r="29" spans="5:16" ht="14.45">
+      <c r="P29" s="38"/>
+    </row>
+    <row r="30" spans="5:16" ht="14.45">
+      <c r="P30" s="38"/>
+    </row>
+    <row r="31" spans="5:16" ht="14.45">
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" spans="5:16" ht="14.45">
+      <c r="P32" s="38"/>
+    </row>
+    <row r="33" spans="16:16" ht="14.45">
+      <c r="P33" s="38"/>
+    </row>
+    <row r="34" spans="16:16" ht="14.45">
+      <c r="P34" s="38"/>
+    </row>
+    <row r="35" spans="16:16" ht="14.45">
+      <c r="P35" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3920,46 +4011,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F30"/>
+  <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15">
+    <row r="2" spans="2:13" ht="15">
       <c r="B2" s="24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15">
       <c r="B4" s="18" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1">
+      <c r="J4" s="28"/>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" customHeight="1">
       <c r="B7">
         <v>2023</v>
       </c>
@@ -3967,30 +4063,37 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15">
+    <row r="8" spans="2:13">
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="M10" s="28"/>
+    </row>
+    <row r="13" spans="2:13" ht="15">
       <c r="B13" s="18" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1">
+    <row r="15" spans="2:13" ht="15.75" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" customHeight="1">
       <c r="B16" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
@@ -4000,7 +4103,7 @@
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1">
       <c r="B18" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
@@ -4045,21 +4148,21 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="12.75" customHeight="1"/>
     <row r="2" spans="2:6" ht="15.75" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -4069,33 +4172,33 @@
     </row>
     <row r="4" spans="2:6" ht="15.75" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="7" spans="2:6" ht="15.75" customHeight="1">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4106,10 +4209,10 @@
     </row>
     <row r="8" spans="2:6" ht="15.75" customHeight="1">
       <c r="B8" s="19" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D8" s="20">
         <v>0</v>
@@ -4121,10 +4224,10 @@
     </row>
     <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" s="15" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
@@ -4141,7 +4244,7 @@
     </row>
     <row r="11" spans="2:6" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -4149,49 +4252,49 @@
     <row r="12" spans="2:6" ht="12.75" customHeight="1"/>
     <row r="13" spans="2:6" ht="15.75" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" customHeight="1">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>2222</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="21" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C16" s="21">
         <v>8888</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -4209,63 +4312,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:Q47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="14" style="7" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="7"/>
+    <col min="5" max="5" width="5.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="17.399999999999999">
+    <row r="3" spans="2:17" ht="17.45">
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
     <row r="5" spans="2:17" ht="15.75" customHeight="1">
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" customHeight="1">
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="29"/>
@@ -4278,7 +4381,7 @@
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="36" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="36"/>
@@ -4289,11 +4392,11 @@
     </row>
     <row r="9" spans="2:17" ht="15.75" customHeight="1">
       <c r="B9" s="31" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="31" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -4314,11 +4417,11 @@
     </row>
     <row r="10" spans="2:17" ht="15.75" customHeight="1">
       <c r="B10" s="26" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -4339,11 +4442,11 @@
     </row>
     <row r="11" spans="2:17" ht="15.75" customHeight="1">
       <c r="B11" s="31" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
@@ -4364,11 +4467,11 @@
     </row>
     <row r="12" spans="2:17" ht="15.75" customHeight="1">
       <c r="B12" s="26" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -4389,11 +4492,11 @@
     </row>
     <row r="13" spans="2:17" ht="15.75" customHeight="1">
       <c r="B13" s="31" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C13" s="31"/>
       <c r="D13" s="31" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
@@ -4414,11 +4517,11 @@
     </row>
     <row r="14" spans="2:17" ht="15.75" customHeight="1">
       <c r="B14" s="26" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="26" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -4439,11 +4542,11 @@
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1">
       <c r="B15" s="31" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -4464,11 +4567,11 @@
     </row>
     <row r="16" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="27" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -5061,120 +5164,120 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999">
+    <row r="2" spans="2:9" ht="17.45">
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1">
       <c r="B6" s="11" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="B7" s="22" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1">
       <c r="D8" s="17" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="12.75" customHeight="1">
@@ -5186,9 +5289,9 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:9" ht="12.75" customHeight="1"/>
-    <row r="11" spans="2:9" ht="17.399999999999999">
+    <row r="11" spans="2:9" ht="17.45">
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -5196,26 +5299,26 @@
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" customHeight="1">
       <c r="B15" s="11" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D15" s="11">
         <v>1055.55</v>
@@ -5223,10 +5326,10 @@
     </row>
     <row r="16" spans="2:9" ht="15.75" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D16" s="23">
         <v>3.6</v>
@@ -5234,10 +5337,10 @@
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
       <c r="B17" s="11" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D17" s="11">
         <v>1000</v>
@@ -5245,10 +5348,10 @@
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D18" s="23">
         <v>1000</v>
@@ -5256,10 +5359,10 @@
     </row>
     <row r="19" spans="2:4" ht="15.75" customHeight="1">
       <c r="B19" s="11" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D19" s="11">
         <v>1.05555</v>
@@ -5267,10 +5370,10 @@
     </row>
     <row r="20" spans="2:4" ht="15.75" customHeight="1">
       <c r="B20" s="23" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D20" s="23">
         <v>4.1868000000000002E-2</v>
@@ -5278,10 +5381,10 @@
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1">
       <c r="B21" s="11" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D21" s="11">
         <v>41.868000000000002</v>
@@ -5289,10 +5392,10 @@
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1">
       <c r="B22" s="23" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D22" s="23">
         <v>3.5999999999999999E-3</v>
@@ -5300,10 +5403,10 @@
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1">
       <c r="B23" s="11" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D23" s="11">
         <v>1000000</v>
@@ -5311,10 +5414,10 @@
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
       <c r="B24" s="23" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D24" s="23">
         <v>1000</v>
@@ -5322,10 +5425,10 @@
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D25" s="11">
         <v>0.15384600000000001</v>
@@ -5333,10 +5436,10 @@
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1">
       <c r="B26" s="23" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D26" s="23">
         <v>-1E-3</v>
@@ -5344,10 +5447,10 @@
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1">
       <c r="B27" s="11" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D27" s="11">
         <v>1000</v>
@@ -5355,10 +5458,10 @@
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D28" s="23">
         <v>37.681199999999997</v>
@@ -5366,10 +5469,10 @@
     </row>
     <row r="29" spans="2:4" ht="15.75" customHeight="1">
       <c r="B29" s="11" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D29" s="11">
         <v>2299</v>
@@ -5377,10 +5480,10 @@
     </row>
     <row r="30" spans="2:4" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="D30" s="23">
         <v>2.7777769999999999</v>
@@ -5388,10 +5491,10 @@
     </row>
     <row r="31" spans="2:4" ht="15.75" customHeight="1">
       <c r="B31" s="11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D31" s="11">
         <v>3.6</v>
@@ -5399,10 +5502,10 @@
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D32" s="23">
         <v>1</v>
@@ -5410,10 +5513,10 @@
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1" thickBot="1">
       <c r="B33" s="13" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D33" s="13">
         <v>4.5</v>
@@ -5429,41 +5532,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C723A573-7245-46B5-A07E-A07CA6F0187B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="96cf5878-74d7-460f-a445-eb4c85d99a58">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="833e474d-e424-4496-95f1-98e7780be11a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FCB31E966C8774491137362174F34D4" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45198f7ca9987c2228de068522a4e9d5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96cf5878-74d7-460f-a445-eb4c85d99a58" xmlns:ns3="833e474d-e424-4496-95f1-98e7780be11a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b17c2e17e2a18750a70818fbd074bff9" ns2:_="" ns3:_="">
-    <xsd:import namespace="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <xsd:import namespace="833e474d-e424-4496-95f1-98e7780be11a"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100594B9D139668E742805735A3EA21C043" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5283bd4de284755c00ee06b3de838c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3355bc15-3803-43c6-99c3-19930f83c70c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="641c50331f870266fddd248c345d606f" ns2:_="">
+    <xsd:import namespace="3355bc15-3803-43c6-99c3-19930f83c70c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -5472,16 +5554,7 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -5490,7 +5563,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="96cf5878-74d7-460f-a445-eb4c85d99a58" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3355bc15-3803-43c6-99c3-19930f83c70c" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -5503,89 +5576,14 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="833e474d-e424-4496-95f1-98e7780be11a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cd527c49-3208-4c55-a151-d8f89dfb23f9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="833e474d-e424-4496-95f1-98e7780be11a">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5688,42 +5686,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641C9249-69FC-4D80-A8BF-F45CF9C8F019}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{753C6118-11AB-4DFA-9958-3A99B60FE9F9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4A66DF-54A6-4E03-963C-8A735A5B845A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58816FCA-407C-47F9-9C43-8EE16EA234F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641C9249-69FC-4D80-A8BF-F45CF9C8F019}"/>
 </file>